--- a/Anna Plots/Population effected by landloss.xlsx
+++ b/Anna Plots/Population effected by landloss.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/annateresa_lai_mail_utoronto_ca/Documents/University Year 4/Winter STA313/Group project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\University UT\Year 4 Courses\STA313\STA313 Github\DataVisProject\Anna Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC1048FD011F42FE5ADE58F7" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ACA9A250-CE58-4803-9799-2D88B2063109}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0A4E65-25C3-4FCC-9E40-333BC6E05CD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1176" windowWidth="10884" windowHeight="11784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -753,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,7 +817,8 @@
         <v>4.4117647058823533</v>
       </c>
       <c r="F2">
-        <v>0.73529411764705888</v>
+        <f>G2-E2</f>
+        <v>-0.73529411764705888</v>
       </c>
       <c r="G2">
         <v>3.6764705882352944</v>
@@ -831,7 +841,8 @@
         <v>7.1538461538461533</v>
       </c>
       <c r="F3">
-        <v>5.7990074441687343</v>
+        <f>G3-E3</f>
+        <v>-5.7990074441687343</v>
       </c>
       <c r="G3">
         <v>1.3548387096774193</v>
@@ -854,7 +865,8 @@
         <v>26.25</v>
       </c>
       <c r="F4">
-        <v>24.25</v>
+        <f t="shared" ref="F4:F66" si="0">G4-E4</f>
+        <v>-24.25</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -877,7 +889,8 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>2.8857142857142857</v>
+        <f t="shared" si="0"/>
+        <v>-2.8857142857142857</v>
       </c>
       <c r="G5">
         <v>0.1142857142857143</v>
@@ -900,7 +913,8 @@
         <v>34.444444444444443</v>
       </c>
       <c r="F6">
-        <v>34.367521367521363</v>
+        <f t="shared" si="0"/>
+        <v>-34.367521367521363</v>
       </c>
       <c r="G6">
         <v>7.6923076923076927E-2</v>
@@ -923,7 +937,8 @@
         <v>9.5833333333333339</v>
       </c>
       <c r="F7">
-        <v>9.3150406504065053</v>
+        <f t="shared" si="0"/>
+        <v>-9.3150406504065053</v>
       </c>
       <c r="G7">
         <v>0.26829268292682928</v>
@@ -946,7 +961,8 @@
         <v>17.910447761194028</v>
       </c>
       <c r="F8">
-        <v>17.148542999289266</v>
+        <f t="shared" si="0"/>
+        <v>-17.148542999289266</v>
       </c>
       <c r="G8">
         <v>0.76190476190476186</v>
@@ -969,7 +985,8 @@
         <v>6.8000000000000007</v>
       </c>
       <c r="F9">
-        <v>6.8000000000000007</v>
+        <f t="shared" si="0"/>
+        <v>-6.8000000000000007</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -992,7 +1009,8 @@
         <v>32.352941176470587</v>
       </c>
       <c r="F10">
-        <v>32.352941176470587</v>
+        <f t="shared" si="0"/>
+        <v>-32.352941176470587</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1015,7 +1033,8 @@
         <v>4.0769230769230766</v>
       </c>
       <c r="F11">
-        <v>-13.423076923076923</v>
+        <f t="shared" si="0"/>
+        <v>13.423076923076923</v>
       </c>
       <c r="G11">
         <v>17.5</v>
@@ -1038,7 +1057,8 @@
         <v>5.2500000000000009</v>
       </c>
       <c r="F12">
-        <v>3.6500000000000008</v>
+        <f t="shared" si="0"/>
+        <v>-3.6500000000000008</v>
       </c>
       <c r="G12">
         <v>1.6</v>
@@ -1061,7 +1081,8 @@
         <v>5.806451612903226</v>
       </c>
       <c r="F13">
-        <v>5.806451612903226</v>
+        <f t="shared" si="0"/>
+        <v>-5.806451612903226</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1084,7 +1105,8 @@
         <v>6.2264150943396226</v>
       </c>
       <c r="F14">
-        <v>1.6110304789550067</v>
+        <f t="shared" si="0"/>
+        <v>-1.6110304789550067</v>
       </c>
       <c r="G14">
         <v>4.6153846153846159</v>
@@ -1107,7 +1129,8 @@
         <v>9.0000000000000018</v>
       </c>
       <c r="F15">
-        <v>8.4000000000000021</v>
+        <f t="shared" si="0"/>
+        <v>-8.4000000000000021</v>
       </c>
       <c r="G15">
         <v>0.6</v>
@@ -1130,7 +1153,8 @@
         <v>8.2142857142857135</v>
       </c>
       <c r="F16">
-        <v>8.2142857142857135</v>
+        <f t="shared" si="0"/>
+        <v>-8.2142857142857135</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1153,7 +1177,8 @@
         <v>8.695652173913043</v>
       </c>
       <c r="F17">
-        <v>4.195652173913043</v>
+        <f t="shared" si="0"/>
+        <v>-4.195652173913043</v>
       </c>
       <c r="G17">
         <v>4.5</v>
@@ -1176,7 +1201,8 @@
         <v>0.64516129032258063</v>
       </c>
       <c r="F18">
-        <v>0.32937181663837012</v>
+        <f t="shared" si="0"/>
+        <v>-0.32937181663837012</v>
       </c>
       <c r="G18">
         <v>0.31578947368421051</v>
@@ -1199,7 +1225,8 @@
         <v>1.9512195121951219</v>
       </c>
       <c r="F19">
-        <v>0.5269770879526976</v>
+        <f t="shared" si="0"/>
+        <v>-0.5269770879526976</v>
       </c>
       <c r="G19">
         <v>1.4242424242424243</v>
@@ -1222,7 +1249,8 @@
         <v>0.7</v>
       </c>
       <c r="F20">
-        <v>-1.3</v>
+        <f t="shared" si="0"/>
+        <v>1.3</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1245,7 +1273,8 @@
         <v>2.6530612244897962</v>
       </c>
       <c r="F21">
-        <v>2.6530612244897962</v>
+        <f t="shared" si="0"/>
+        <v>-2.6530612244897962</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1268,7 +1297,8 @@
         <v>0.8</v>
       </c>
       <c r="F22">
-        <v>0.56470588235294117</v>
+        <f t="shared" si="0"/>
+        <v>-0.56470588235294117</v>
       </c>
       <c r="G22">
         <v>0.23529411764705885</v>
@@ -1291,7 +1321,8 @@
         <v>15.492957746478876</v>
       </c>
       <c r="F23">
-        <v>9.2621885157096457</v>
+        <f t="shared" si="0"/>
+        <v>-9.2621885157096457</v>
       </c>
       <c r="G23">
         <v>6.2307692307692308</v>
@@ -1314,7 +1345,8 @@
         <v>1.6129032258064515</v>
       </c>
       <c r="F24">
-        <v>0.88563049853372422</v>
+        <f t="shared" si="0"/>
+        <v>-0.88563049853372422</v>
       </c>
       <c r="G24">
         <v>0.72727272727272729</v>
@@ -1337,7 +1369,8 @@
         <v>1.5873015873015872</v>
       </c>
       <c r="F25">
-        <v>-4.9062049062049073</v>
+        <f t="shared" si="0"/>
+        <v>4.9062049062049073</v>
       </c>
       <c r="G25">
         <v>6.4935064935064943</v>
@@ -1360,7 +1393,8 @@
         <v>4.1363636363636367</v>
       </c>
       <c r="F26">
-        <v>3.691919191919192</v>
+        <f t="shared" si="0"/>
+        <v>-3.691919191919192</v>
       </c>
       <c r="G26">
         <v>0.44444444444444442</v>
@@ -1383,7 +1417,8 @@
         <v>5.9333333333333336</v>
       </c>
       <c r="F27">
-        <v>5.4888888888888889</v>
+        <f t="shared" si="0"/>
+        <v>-5.4888888888888889</v>
       </c>
       <c r="G27">
         <v>0.44444444444444442</v>
@@ -1406,7 +1441,8 @@
         <v>4.1904761904761907</v>
       </c>
       <c r="F28">
-        <v>3.9177489177489182</v>
+        <f t="shared" si="0"/>
+        <v>-3.9177489177489182</v>
       </c>
       <c r="G28">
         <v>0.27272727272727271</v>
@@ -1429,7 +1465,8 @@
         <v>3.4782608695652173</v>
       </c>
       <c r="F29">
-        <v>3.4782608695652173</v>
+        <f t="shared" si="0"/>
+        <v>-3.4782608695652173</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1452,7 +1489,8 @@
         <v>5.5714285714285712</v>
       </c>
       <c r="F30">
-        <v>1.4285714285714288</v>
+        <f t="shared" si="0"/>
+        <v>-1.4285714285714288</v>
       </c>
       <c r="G30">
         <v>4.1428571428571423</v>
@@ -1475,7 +1513,8 @@
         <v>0.4</v>
       </c>
       <c r="F31">
-        <v>-1.4181818181818184</v>
+        <f t="shared" si="0"/>
+        <v>1.4181818181818184</v>
       </c>
       <c r="G31">
         <v>1.8181818181818183</v>
@@ -1498,7 +1537,8 @@
         <v>1.3809523809523807</v>
       </c>
       <c r="F32">
-        <v>-20.240669240669241</v>
+        <f t="shared" si="0"/>
+        <v>20.240669240669241</v>
       </c>
       <c r="G32">
         <v>21.621621621621621</v>
@@ -1521,7 +1561,8 @@
         <v>0.91379310344827591</v>
       </c>
       <c r="F33">
-        <v>0.50562983814215356</v>
+        <f t="shared" si="0"/>
+        <v>-0.50562983814215356</v>
       </c>
       <c r="G33">
         <v>0.4081632653061224</v>
@@ -1544,7 +1585,8 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="F34">
-        <v>-5.166666666666667</v>
+        <f t="shared" si="0"/>
+        <v>5.166666666666667</v>
       </c>
       <c r="G34">
         <v>5.8333333333333339</v>
@@ -1567,7 +1609,8 @@
         <v>1.4848484848484849</v>
       </c>
       <c r="F35">
-        <v>-3.2484848484848485</v>
+        <f t="shared" si="0"/>
+        <v>3.2484848484848485</v>
       </c>
       <c r="G35">
         <v>4.7333333333333334</v>
@@ -1590,7 +1633,8 @@
         <v>7.4242424242424248</v>
       </c>
       <c r="F36">
-        <v>2.4242424242424248</v>
+        <f t="shared" si="0"/>
+        <v>-2.4242424242424248</v>
       </c>
       <c r="G36">
         <v>5</v>
@@ -1613,7 +1657,8 @@
         <v>5.1648351648351642</v>
       </c>
       <c r="F37">
-        <v>5.1648351648351642</v>
+        <f t="shared" si="0"/>
+        <v>-5.1648351648351642</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1636,7 +1681,8 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="F38">
-        <v>9.1999999999999993</v>
+        <f t="shared" si="0"/>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1659,7 +1705,8 @@
         <v>1.34375</v>
       </c>
       <c r="F39">
-        <v>-2.1446220930232558</v>
+        <f t="shared" si="0"/>
+        <v>2.1446220930232558</v>
       </c>
       <c r="G39">
         <v>3.4883720930232558</v>
@@ -1682,7 +1729,8 @@
         <v>0.90909090909090917</v>
       </c>
       <c r="F40">
-        <v>-0.50360750360750339</v>
+        <f t="shared" si="0"/>
+        <v>0.50360750360750339</v>
       </c>
       <c r="G40">
         <v>1.4126984126984126</v>
@@ -1705,7 +1753,8 @@
         <v>3.166666666666667</v>
       </c>
       <c r="F41">
-        <v>3.166666666666667</v>
+        <f t="shared" si="0"/>
+        <v>-3.166666666666667</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1728,7 +1777,8 @@
         <v>3</v>
       </c>
       <c r="F42">
-        <v>-0.57142857142857117</v>
+        <f t="shared" si="0"/>
+        <v>0.57142857142857117</v>
       </c>
       <c r="G42">
         <v>3.5714285714285712</v>
@@ -1751,7 +1801,8 @@
         <v>0.37662337662337658</v>
       </c>
       <c r="F43">
-        <v>-0.24837662337662342</v>
+        <f t="shared" si="0"/>
+        <v>0.24837662337662342</v>
       </c>
       <c r="G43">
         <v>0.625</v>
@@ -1774,7 +1825,8 @@
         <v>1.0384615384615385</v>
       </c>
       <c r="F44">
-        <v>-7.2649572649572614E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.2649572649572614E-2</v>
       </c>
       <c r="G44">
         <v>1.1111111111111112</v>
@@ -1797,7 +1849,8 @@
         <v>0.22727272727272727</v>
       </c>
       <c r="F45">
-        <v>0.22727272727272727</v>
+        <f t="shared" si="0"/>
+        <v>-0.22727272727272727</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1820,7 +1873,8 @@
         <v>0.17692307692307693</v>
       </c>
       <c r="F46">
-        <v>-1.6523452157598497</v>
+        <f t="shared" si="0"/>
+        <v>1.6523452157598497</v>
       </c>
       <c r="G46">
         <v>1.8292682926829267</v>
@@ -1843,7 +1897,8 @@
         <v>0.62857142857142856</v>
       </c>
       <c r="F47">
-        <v>0.50357142857142856</v>
+        <f t="shared" si="0"/>
+        <v>-0.50357142857142856</v>
       </c>
       <c r="G47">
         <v>0.125</v>
@@ -1866,7 +1921,8 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>0.63636363636363635</v>
+        <f t="shared" si="0"/>
+        <v>-0.63636363636363635</v>
       </c>
       <c r="G48">
         <v>0.36363636363636365</v>
@@ -1889,7 +1945,8 @@
         <v>0.55263157894736836</v>
       </c>
       <c r="F49">
-        <v>0.48120300751879697</v>
+        <f t="shared" si="0"/>
+        <v>-0.48120300751879697</v>
       </c>
       <c r="G49">
         <v>7.1428571428571425E-2</v>
@@ -1912,7 +1969,8 @@
         <v>0.43478260869565216</v>
       </c>
       <c r="F50">
-        <v>-32.898550724637687</v>
+        <f t="shared" si="0"/>
+        <v>32.898550724637687</v>
       </c>
       <c r="G50">
         <v>33.333333333333336</v>
@@ -1935,7 +1993,8 @@
         <v>1.7999999999999998</v>
       </c>
       <c r="F51">
-        <v>-0.90000000000000036</v>
+        <f t="shared" si="0"/>
+        <v>0.90000000000000036</v>
       </c>
       <c r="G51">
         <v>2.7</v>
@@ -1958,7 +2017,8 @@
         <v>0.85714285714285721</v>
       </c>
       <c r="F52">
-        <v>0.85714285714285721</v>
+        <f t="shared" si="0"/>
+        <v>-0.85714285714285721</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -1981,7 +2041,8 @@
         <v>1.7999999999999998</v>
       </c>
       <c r="F53">
-        <v>-6.5333333333333323</v>
+        <f t="shared" si="0"/>
+        <v>6.5333333333333323</v>
       </c>
       <c r="G53">
         <v>8.3333333333333321</v>
@@ -2004,7 +2065,8 @@
         <v>4.5945945945945947</v>
       </c>
       <c r="F54">
-        <v>3.9760378935636669</v>
+        <f t="shared" si="0"/>
+        <v>-3.9760378935636669</v>
       </c>
       <c r="G54">
         <v>0.61855670103092786</v>
@@ -2027,7 +2089,8 @@
         <v>21.621621621621621</v>
       </c>
       <c r="F55">
-        <v>21.621621621621621</v>
+        <f t="shared" si="0"/>
+        <v>-21.621621621621621</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2050,7 +2113,8 @@
         <v>0.5185185185185186</v>
       </c>
       <c r="F56">
-        <v>-13.565988523735003</v>
+        <f t="shared" si="0"/>
+        <v>13.565988523735003</v>
       </c>
       <c r="G56">
         <v>14.084507042253522</v>
@@ -2073,7 +2137,8 @@
         <v>0.31707317073170732</v>
       </c>
       <c r="F57">
-        <v>-2.2662601626016263</v>
+        <f t="shared" si="0"/>
+        <v>2.2662601626016263</v>
       </c>
       <c r="G57">
         <v>2.5833333333333335</v>
@@ -2096,7 +2161,8 @@
         <v>48</v>
       </c>
       <c r="F58">
-        <v>39.666666666666671</v>
+        <f t="shared" si="0"/>
+        <v>-39.666666666666671</v>
       </c>
       <c r="G58">
         <v>8.3333333333333321</v>
@@ -2119,7 +2185,8 @@
         <v>0.4</v>
       </c>
       <c r="F59">
-        <v>0.16623376623376626</v>
+        <f t="shared" si="0"/>
+        <v>-0.16623376623376626</v>
       </c>
       <c r="G59">
         <v>0.23376623376623376</v>
@@ -2142,7 +2209,8 @@
         <v>21.428571428571423</v>
       </c>
       <c r="F60">
-        <v>13.428571428571423</v>
+        <f t="shared" si="0"/>
+        <v>-13.428571428571423</v>
       </c>
       <c r="G60">
         <v>8</v>
@@ -2165,7 +2233,8 @@
         <v>2</v>
       </c>
       <c r="F61">
-        <v>0.69565217391304346</v>
+        <f t="shared" si="0"/>
+        <v>-0.69565217391304346</v>
       </c>
       <c r="G61">
         <v>1.3043478260869565</v>
@@ -2188,7 +2257,8 @@
         <v>0.27499999999999997</v>
       </c>
       <c r="F62">
-        <v>-0.56982758620689644</v>
+        <f t="shared" si="0"/>
+        <v>0.56982758620689644</v>
       </c>
       <c r="G62">
         <v>0.84482758620689646</v>
@@ -2211,7 +2281,8 @@
         <v>3</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>-3</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2234,7 +2305,8 @@
         <v>12.5</v>
       </c>
       <c r="F64">
-        <v>9.3461538461538467</v>
+        <f t="shared" si="0"/>
+        <v>-9.3461538461538467</v>
       </c>
       <c r="G64">
         <v>3.1538461538461537</v>
@@ -2257,7 +2329,8 @@
         <v>0.82474226804123718</v>
       </c>
       <c r="F65">
-        <v>-10.286368843069875</v>
+        <f t="shared" si="0"/>
+        <v>10.286368843069875</v>
       </c>
       <c r="G65">
         <v>11.111111111111112</v>
@@ -2280,7 +2353,8 @@
         <v>1.7391304347826086</v>
       </c>
       <c r="F66">
-        <v>1.5141304347826088</v>
+        <f t="shared" si="0"/>
+        <v>-1.5141304347826088</v>
       </c>
       <c r="G66">
         <v>0.22499999999999998</v>
@@ -2303,7 +2377,8 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="F67">
-        <v>-29.272727272727273</v>
+        <f t="shared" ref="F67:F125" si="1">G67-E67</f>
+        <v>29.272727272727273</v>
       </c>
       <c r="G67">
         <v>30</v>
@@ -2326,7 +2401,8 @@
         <v>0.16326530612244899</v>
       </c>
       <c r="F68">
-        <v>-0.74582560296846001</v>
+        <f t="shared" si="1"/>
+        <v>0.74582560296846001</v>
       </c>
       <c r="G68">
         <v>0.90909090909090906</v>
@@ -2349,7 +2425,8 @@
         <v>0.36842105263157898</v>
       </c>
       <c r="F69">
-        <v>0.36842105263157898</v>
+        <f t="shared" si="1"/>
+        <v>-0.36842105263157898</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2372,7 +2449,8 @@
         <v>5.8333333333333339</v>
       </c>
       <c r="F70">
-        <v>1.5090090090090102</v>
+        <f t="shared" si="1"/>
+        <v>-1.5090090090090102</v>
       </c>
       <c r="G70">
         <v>4.3243243243243237</v>
@@ -2395,7 +2473,8 @@
         <v>0.31818181818181818</v>
       </c>
       <c r="F71">
-        <v>-0.29720279720279724</v>
+        <f t="shared" si="1"/>
+        <v>0.29720279720279724</v>
       </c>
       <c r="G71">
         <v>0.61538461538461542</v>
@@ -2418,7 +2497,8 @@
         <v>0.63636363636363635</v>
       </c>
       <c r="F72">
-        <v>6.4935064935064957E-2</v>
+        <f t="shared" si="1"/>
+        <v>-6.4935064935064957E-2</v>
       </c>
       <c r="G72">
         <v>0.5714285714285714</v>
@@ -2441,7 +2521,8 @@
         <v>7.7922077922077921</v>
       </c>
       <c r="F73">
-        <v>-11.85064935064935</v>
+        <f t="shared" si="1"/>
+        <v>11.85064935064935</v>
       </c>
       <c r="G73">
         <v>19.642857142857142</v>
@@ -2464,7 +2545,8 @@
         <v>0.92307692307692302</v>
       </c>
       <c r="F74">
-        <v>0.25641025641025628</v>
+        <f t="shared" si="1"/>
+        <v>-0.25641025641025628</v>
       </c>
       <c r="G74">
         <v>0.66666666666666674</v>
@@ -2487,7 +2569,8 @@
         <v>0.98360655737704927</v>
       </c>
       <c r="F75">
-        <v>-5.4449648711943803</v>
+        <f t="shared" si="1"/>
+        <v>5.4449648711943803</v>
       </c>
       <c r="G75">
         <v>6.4285714285714297</v>
@@ -2510,7 +2593,8 @@
         <v>0.29411764705882354</v>
       </c>
       <c r="F76">
-        <v>-43.705882352941174</v>
+        <f t="shared" si="1"/>
+        <v>43.705882352941174</v>
       </c>
       <c r="G76">
         <v>44</v>
@@ -2533,7 +2617,8 @@
         <v>0.45454545454545459</v>
       </c>
       <c r="F77">
-        <v>-79.545454545454547</v>
+        <f t="shared" si="1"/>
+        <v>79.545454545454547</v>
       </c>
       <c r="G77">
         <v>80</v>
@@ -2556,7 +2641,8 @@
         <v>0.51020408163265307</v>
       </c>
       <c r="F78">
-        <v>0.51020408163265307</v>
+        <f t="shared" si="1"/>
+        <v>-0.51020408163265307</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2579,7 +2665,8 @@
         <v>5.8139534883720936</v>
       </c>
       <c r="F79">
-        <v>5.5014534883720936</v>
+        <f t="shared" si="1"/>
+        <v>-5.5014534883720936</v>
       </c>
       <c r="G79">
         <v>0.3125</v>
@@ -2602,7 +2689,8 @@
         <v>0.45454545454545459</v>
       </c>
       <c r="F80">
-        <v>-2.6223776223776221</v>
+        <f t="shared" si="1"/>
+        <v>2.6223776223776221</v>
       </c>
       <c r="G80">
         <v>3.0769230769230766</v>
@@ -2625,7 +2713,8 @@
         <v>3.8461538461538463</v>
       </c>
       <c r="F81">
-        <v>-0.50167224080267525</v>
+        <f t="shared" si="1"/>
+        <v>0.50167224080267525</v>
       </c>
       <c r="G81">
         <v>4.3478260869565215</v>
@@ -2648,7 +2737,8 @@
         <v>1.1627906976744187</v>
       </c>
       <c r="F82">
-        <v>1.0082452431289641</v>
+        <f t="shared" si="1"/>
+        <v>-1.0082452431289641</v>
       </c>
       <c r="G82">
         <v>0.15454545454545457</v>
@@ -2671,7 +2761,8 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="F83">
-        <v>-18.333333333333332</v>
+        <f t="shared" si="1"/>
+        <v>18.333333333333332</v>
       </c>
       <c r="G83">
         <v>20</v>
@@ -2694,7 +2785,8 @@
         <v>0.94339622641509446</v>
       </c>
       <c r="F84">
-        <v>-0.27535377358490554</v>
+        <f t="shared" si="1"/>
+        <v>0.27535377358490554</v>
       </c>
       <c r="G84">
         <v>1.21875</v>
@@ -2717,7 +2809,8 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="F85">
-        <v>-3.5707070707070709</v>
+        <f t="shared" si="1"/>
+        <v>3.5707070707070709</v>
       </c>
       <c r="G85">
         <v>3.6818181818181821</v>
@@ -2740,7 +2833,8 @@
         <v>0.1142857142857143</v>
       </c>
       <c r="F86">
-        <v>-4.7913746630727774</v>
+        <f t="shared" si="1"/>
+        <v>4.7913746630727774</v>
       </c>
       <c r="G86">
         <v>4.9056603773584913</v>
@@ -2763,7 +2857,8 @@
         <v>80</v>
       </c>
       <c r="F87">
-        <v>51.17647058823529</v>
+        <f t="shared" si="1"/>
+        <v>-51.17647058823529</v>
       </c>
       <c r="G87">
         <v>28.82352941176471</v>
@@ -2786,7 +2881,8 @@
         <v>7.8431372549019605</v>
       </c>
       <c r="F88">
-        <v>7.8431372549019605</v>
+        <f t="shared" si="1"/>
+        <v>-7.8431372549019605</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -2809,7 +2905,8 @@
         <v>7.8431372549019605</v>
       </c>
       <c r="F89">
-        <v>7.1454628362973089</v>
+        <f t="shared" si="1"/>
+        <v>-7.1454628362973089</v>
       </c>
       <c r="G89">
         <v>0.69767441860465118</v>
@@ -2832,7 +2929,8 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F90">
-        <v>0.66666666666666663</v>
+        <f t="shared" si="1"/>
+        <v>-0.66666666666666663</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -2855,7 +2953,8 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="F91">
-        <v>0.93333333333333335</v>
+        <f t="shared" si="1"/>
+        <v>-0.93333333333333335</v>
       </c>
       <c r="G91">
         <v>0.73333333333333339</v>
@@ -2878,7 +2977,8 @@
         <v>0.125</v>
       </c>
       <c r="F92">
-        <v>-2.831521739130435</v>
+        <f t="shared" si="1"/>
+        <v>2.831521739130435</v>
       </c>
       <c r="G92">
         <v>2.956521739130435</v>
@@ -2901,7 +3001,8 @@
         <v>30</v>
       </c>
       <c r="F93">
-        <v>-10</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="G93">
         <v>40</v>
@@ -2924,7 +3025,8 @@
         <v>0.88235294117647056</v>
       </c>
       <c r="F94">
-        <v>-0.45098039215686292</v>
+        <f t="shared" si="1"/>
+        <v>0.45098039215686292</v>
       </c>
       <c r="G94">
         <v>1.3333333333333335</v>
@@ -2947,7 +3049,8 @@
         <v>15.789473684210526</v>
       </c>
       <c r="F95">
-        <v>15.472807017543859</v>
+        <f t="shared" si="1"/>
+        <v>-15.472807017543859</v>
       </c>
       <c r="G95">
         <v>0.31666666666666665</v>
@@ -2970,7 +3073,8 @@
         <v>6.1224489795918364</v>
       </c>
       <c r="F96">
-        <v>5.5342136854741897</v>
+        <f t="shared" si="1"/>
+        <v>-5.5342136854741897</v>
       </c>
       <c r="G96">
         <v>0.58823529411764708</v>
@@ -2993,7 +3097,8 @@
         <v>4</v>
       </c>
       <c r="F97">
-        <v>3.3442622950819674</v>
+        <f t="shared" si="1"/>
+        <v>-3.3442622950819674</v>
       </c>
       <c r="G97">
         <v>0.65573770491803285</v>
@@ -3016,7 +3121,8 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="F98">
-        <v>4.4444444444444398E-2</v>
+        <f t="shared" si="1"/>
+        <v>-4.4444444444444398E-2</v>
       </c>
       <c r="G98">
         <v>0.4</v>
@@ -3039,7 +3145,8 @@
         <v>33.333333333333336</v>
       </c>
       <c r="F99">
-        <v>27.933333333333337</v>
+        <f t="shared" si="1"/>
+        <v>-27.933333333333337</v>
       </c>
       <c r="G99">
         <v>5.4</v>
@@ -3062,7 +3169,8 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="F100">
-        <v>0.3564593301435407</v>
+        <f t="shared" si="1"/>
+        <v>-0.3564593301435407</v>
       </c>
       <c r="G100">
         <v>0.55263157894736836</v>
@@ -3085,7 +3193,8 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="F101">
-        <v>-6.4935064935064957E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.4935064935064957E-2</v>
       </c>
       <c r="G101">
         <v>0.63636363636363635</v>
@@ -3108,7 +3217,8 @@
         <v>0.625</v>
       </c>
       <c r="F102">
-        <v>0.625</v>
+        <f t="shared" si="1"/>
+        <v>-0.625</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3131,7 +3241,8 @@
         <v>20</v>
       </c>
       <c r="F103">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>-20</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3154,7 +3265,8 @@
         <v>40</v>
       </c>
       <c r="F104">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>-40</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3177,7 +3289,8 @@
         <v>11.111111111111112</v>
       </c>
       <c r="F105">
-        <v>10.949572649572652</v>
+        <f t="shared" si="1"/>
+        <v>-10.949572649572652</v>
       </c>
       <c r="G105">
         <v>0.16153846153846152</v>
@@ -3200,7 +3313,8 @@
         <v>0.25</v>
       </c>
       <c r="F106">
-        <v>0.25</v>
+        <f t="shared" si="1"/>
+        <v>-0.25</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3223,7 +3337,8 @@
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="F107">
-        <v>-10.449392712550607</v>
+        <f t="shared" si="1"/>
+        <v>10.449392712550607</v>
       </c>
       <c r="G107">
         <v>10.526315789473683</v>
@@ -3246,7 +3361,8 @@
         <v>3.225806451612903</v>
       </c>
       <c r="F108">
-        <v>-7.8853046594982095</v>
+        <f t="shared" si="1"/>
+        <v>7.8853046594982095</v>
       </c>
       <c r="G108">
         <v>11.111111111111112</v>
@@ -3269,7 +3385,8 @@
         <v>3.225806451612903</v>
       </c>
       <c r="F109">
-        <v>2.3411910669975184</v>
+        <f t="shared" si="1"/>
+        <v>-2.3411910669975184</v>
       </c>
       <c r="G109">
         <v>0.88461538461538469</v>
@@ -3292,7 +3409,8 @@
         <v>0.16666666666666669</v>
       </c>
       <c r="F110">
-        <v>-1.0833333333333333</v>
+        <f t="shared" si="1"/>
+        <v>1.0833333333333333</v>
       </c>
       <c r="G110">
         <v>1.25</v>
@@ -3315,7 +3433,8 @@
         <v>0.17241379310344829</v>
       </c>
       <c r="F111">
-        <v>-10.938697318007664</v>
+        <f t="shared" si="1"/>
+        <v>10.938697318007664</v>
       </c>
       <c r="G111">
         <v>11.111111111111112</v>
@@ -3338,7 +3457,8 @@
         <v>3.5714285714285712</v>
       </c>
       <c r="F112">
-        <v>2.8167115902964959</v>
+        <f t="shared" si="1"/>
+        <v>-2.8167115902964959</v>
       </c>
       <c r="G112">
         <v>0.75471698113207553</v>
@@ -3361,7 +3481,8 @@
         <v>0.625</v>
       </c>
       <c r="F113">
-        <v>-7.2181372549019605</v>
+        <f t="shared" si="1"/>
+        <v>7.2181372549019605</v>
       </c>
       <c r="G113">
         <v>7.8431372549019605</v>
@@ -3384,7 +3505,8 @@
         <v>0.21739130434782608</v>
       </c>
       <c r="F114">
-        <v>-1.482608695652174</v>
+        <f t="shared" si="1"/>
+        <v>1.482608695652174</v>
       </c>
       <c r="G114">
         <v>1.7000000000000002</v>
@@ -3407,7 +3529,8 @@
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="F115">
-        <v>-5.1020408163265307E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.1020408163265307E-2</v>
       </c>
       <c r="G115">
         <v>0.12244897959183673</v>
@@ -3430,7 +3553,8 @@
         <v>11.111111111111112</v>
       </c>
       <c r="F116">
-        <v>8.8662131519274396</v>
+        <f t="shared" si="1"/>
+        <v>-8.8662131519274396</v>
       </c>
       <c r="G116">
         <v>2.2448979591836737</v>
@@ -3453,7 +3577,8 @@
         <v>0.24390243902439029</v>
       </c>
       <c r="F117">
-        <v>-8.2184517497348841E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.2184517497348841E-2</v>
       </c>
       <c r="G117">
         <v>0.32608695652173914</v>
@@ -3476,7 +3601,8 @@
         <v>4.3478260869565215</v>
       </c>
       <c r="F118">
-        <v>4.1660079051383399</v>
+        <f t="shared" si="1"/>
+        <v>-4.1660079051383399</v>
       </c>
       <c r="G118">
         <v>0.18181818181818182</v>
@@ -3499,7 +3625,8 @@
         <v>4</v>
       </c>
       <c r="F119">
-        <v>3.4285714285714288</v>
+        <f t="shared" si="1"/>
+        <v>-3.4285714285714288</v>
       </c>
       <c r="G119">
         <v>0.5714285714285714</v>
@@ -3522,7 +3649,8 @@
         <v>0.16666666666666669</v>
       </c>
       <c r="F120">
-        <v>-5.7156862745098032</v>
+        <f t="shared" si="1"/>
+        <v>5.7156862745098032</v>
       </c>
       <c r="G120">
         <v>5.8823529411764701</v>
@@ -3545,7 +3673,8 @@
         <v>1.3157894736842104</v>
       </c>
       <c r="F121">
-        <v>1.0657894736842104</v>
+        <f t="shared" si="1"/>
+        <v>-1.0657894736842104</v>
       </c>
       <c r="G121">
         <v>0.25</v>
@@ -3568,7 +3697,8 @@
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="F122">
-        <v>-6.9110671936758887</v>
+        <f t="shared" si="1"/>
+        <v>6.9110671936758887</v>
       </c>
       <c r="G122">
         <v>6.9565217391304346</v>
@@ -3591,7 +3721,8 @@
         <v>11.111111111111112</v>
       </c>
       <c r="F123">
-        <v>9.825396825396826</v>
+        <f t="shared" si="1"/>
+        <v>-9.825396825396826</v>
       </c>
       <c r="G123">
         <v>1.2857142857142858</v>
@@ -3614,7 +3745,8 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="F124">
-        <v>-3.6069651741293516</v>
+        <f t="shared" si="1"/>
+        <v>3.6069651741293516</v>
       </c>
       <c r="G124">
         <v>11.940298507462686</v>
@@ -3637,7 +3769,8 @@
         <v>5.2631578947368416</v>
       </c>
       <c r="F125">
-        <v>-2.0095693779904309</v>
+        <f t="shared" si="1"/>
+        <v>2.0095693779904309</v>
       </c>
       <c r="G125">
         <v>7.2727272727272725</v>

--- a/Anna Plots/Population effected by landloss.xlsx
+++ b/Anna Plots/Population effected by landloss.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\University UT\Year 4 Courses\STA313\STA313 Github\DataVisProject\Anna Plots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\University UT\Year 4 Courses\Winter STA313\STA313 Github\DataVisProject\Anna Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0A4E65-25C3-4FCC-9E40-333BC6E05CD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8D7140-56B8-443F-90D1-95B3FEA26B9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12000" yWindow="732" windowWidth="10884" windowHeight="11784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -763,7 +763,7 @@
   <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,7 +937,7 @@
         <v>9.5833333333333339</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f>G7-E7</f>
         <v>-9.3150406504065053</v>
       </c>
       <c r="G7">
@@ -3814,5 +3814,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>